--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>SD card speed low Change card .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,66 +512,66 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Precision Landing Correcting Landing Position</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
+          <t>Precision Landing Locating Landing Point</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,21 +637,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,17 +671,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GEO Zone</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -696,65 +696,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Info: The target area is in an Altitude Zone</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>20</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6-13</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>20</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>When exceeding nnn,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SD card speed low Change card .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,66 +512,66 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing Locating Landing Point</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,21 +637,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,17 +671,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>GEO Zone</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -696,15 +696,65 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6-13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>When exceeding nnn,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6-8</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>False</t>
         </is>
